--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Expleo Solutions Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Expleo Solutions Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -654,13 +654,13 @@
         <v>0.06</v>
       </c>
       <c r="H2">
-        <v>14.60823529411765</v>
+        <v>14.61</v>
       </c>
       <c r="I2">
         <v>2.21</v>
       </c>
       <c r="J2">
-        <v>6.987058823529413</v>
+        <v>6.99</v>
       </c>
       <c r="K2">
         <v>2.21</v>
@@ -672,10 +672,10 @@
         <v>1.1</v>
       </c>
       <c r="N2">
-        <v>4.24625</v>
+        <v>4.25</v>
       </c>
       <c r="O2">
-        <v>1.672</v>
+        <v>1.67</v>
       </c>
       <c r="P2">
         <v>1.1</v>
@@ -687,10 +687,10 @@
         <v>0.04</v>
       </c>
       <c r="S2">
-        <v>1.748181818181818</v>
+        <v>1.75</v>
       </c>
       <c r="T2">
-        <v>6.586428571428572</v>
+        <v>6.59</v>
       </c>
       <c r="U2">
         <v>1.87</v>
@@ -714,19 +714,19 @@
         <v>13.94</v>
       </c>
       <c r="AB2">
-        <v>38.37764705882353</v>
+        <v>38.38</v>
       </c>
       <c r="AC2">
-        <v>77.55437499999999</v>
+        <v>77.55</v>
       </c>
       <c r="AD2">
-        <v>223.2833333333333</v>
+        <v>223.28</v>
       </c>
       <c r="AE2">
-        <v>7.226250000000002</v>
+        <v>7.23</v>
       </c>
       <c r="AF2">
-        <v>3.3575</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -752,13 +752,13 @@
         <v>0.01</v>
       </c>
       <c r="H3">
-        <v>14.60823529411765</v>
+        <v>14.61</v>
       </c>
       <c r="I3">
         <v>5.79</v>
       </c>
       <c r="J3">
-        <v>6.987058823529413</v>
+        <v>6.99</v>
       </c>
       <c r="K3">
         <v>5.79</v>
@@ -770,7 +770,7 @@
         <v>1.4</v>
       </c>
       <c r="N3">
-        <v>4.24625</v>
+        <v>4.25</v>
       </c>
       <c r="O3">
         <v>1.35</v>
@@ -785,10 +785,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="S3">
-        <v>1.748181818181818</v>
+        <v>1.75</v>
       </c>
       <c r="T3">
-        <v>6.586428571428572</v>
+        <v>6.59</v>
       </c>
       <c r="U3">
         <v>3.83</v>
@@ -812,19 +812,19 @@
         <v>20.34</v>
       </c>
       <c r="AB3">
-        <v>38.37764705882353</v>
+        <v>38.38</v>
       </c>
       <c r="AC3">
-        <v>77.55437499999999</v>
+        <v>77.55</v>
       </c>
       <c r="AD3">
-        <v>223.2833333333333</v>
+        <v>223.28</v>
       </c>
       <c r="AE3">
-        <v>7.226250000000002</v>
+        <v>7.23</v>
       </c>
       <c r="AF3">
-        <v>3.3575</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -847,16 +847,16 @@
         <v>21.14</v>
       </c>
       <c r="G4">
-        <v>10.85153846153846</v>
+        <v>10.85</v>
       </c>
       <c r="H4">
-        <v>14.60823529411765</v>
+        <v>14.61</v>
       </c>
       <c r="I4">
         <v>7.54</v>
       </c>
       <c r="J4">
-        <v>6.987058823529413</v>
+        <v>6.99</v>
       </c>
       <c r="K4">
         <v>7.54</v>
@@ -868,7 +868,7 @@
         <v>1.97</v>
       </c>
       <c r="N4">
-        <v>4.24625</v>
+        <v>4.25</v>
       </c>
       <c r="O4">
         <v>0.24</v>
@@ -883,10 +883,10 @@
         <v>0.13</v>
       </c>
       <c r="S4">
-        <v>1.748181818181818</v>
+        <v>1.75</v>
       </c>
       <c r="T4">
-        <v>6.586428571428572</v>
+        <v>6.59</v>
       </c>
       <c r="U4">
         <v>3.36</v>
@@ -910,19 +910,19 @@
         <v>28.68</v>
       </c>
       <c r="AB4">
-        <v>38.37764705882353</v>
+        <v>38.38</v>
       </c>
       <c r="AC4">
-        <v>77.55437499999999</v>
+        <v>77.55</v>
       </c>
       <c r="AD4">
-        <v>223.2833333333333</v>
+        <v>223.28</v>
       </c>
       <c r="AE4">
-        <v>7.226250000000002</v>
+        <v>7.23</v>
       </c>
       <c r="AF4">
-        <v>3.3575</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -945,7 +945,7 @@
         <v>29.73</v>
       </c>
       <c r="G5">
-        <v>10.85153846153846</v>
+        <v>10.85</v>
       </c>
       <c r="H5">
         <v>0.51</v>
@@ -981,10 +981,10 @@
         <v>0.34</v>
       </c>
       <c r="S5">
-        <v>1.748181818181818</v>
+        <v>1.75</v>
       </c>
       <c r="T5">
-        <v>6.586428571428572</v>
+        <v>6.59</v>
       </c>
       <c r="U5">
         <v>4.17</v>
@@ -999,7 +999,7 @@
         <v>7.47</v>
       </c>
       <c r="Y5">
-        <v>15.48388888888889</v>
+        <v>15.48</v>
       </c>
       <c r="Z5">
         <v>37.58</v>
@@ -1017,7 +1017,7 @@
         <v>0.05</v>
       </c>
       <c r="AE5">
-        <v>7.226250000000002</v>
+        <v>7.23</v>
       </c>
       <c r="AF5">
         <v>1.01</v>
@@ -1043,7 +1043,7 @@
         <v>43.7</v>
       </c>
       <c r="G6">
-        <v>10.85153846153846</v>
+        <v>10.85</v>
       </c>
       <c r="H6">
         <v>1.22</v>
@@ -1079,10 +1079,10 @@
         <v>0.62</v>
       </c>
       <c r="S6">
-        <v>1.748181818181818</v>
+        <v>1.75</v>
       </c>
       <c r="T6">
-        <v>6.586428571428572</v>
+        <v>6.59</v>
       </c>
       <c r="U6">
         <v>4.98</v>
@@ -1097,7 +1097,7 @@
         <v>10.67</v>
       </c>
       <c r="Y6">
-        <v>15.48388888888889</v>
+        <v>15.48</v>
       </c>
       <c r="Z6">
         <v>55.33</v>
@@ -1141,7 +1141,7 @@
         <v>65.84</v>
       </c>
       <c r="G7">
-        <v>10.85153846153846</v>
+        <v>10.85</v>
       </c>
       <c r="H7">
         <v>0.46</v>
@@ -1177,10 +1177,10 @@
         <v>1.03</v>
       </c>
       <c r="S7">
-        <v>1.748181818181818</v>
+        <v>1.75</v>
       </c>
       <c r="T7">
-        <v>6.586428571428572</v>
+        <v>6.59</v>
       </c>
       <c r="U7">
         <v>6.29</v>
@@ -1504,7 +1504,7 @@
         <v>17.44</v>
       </c>
       <c r="AD10">
-        <v>223.2833333333333</v>
+        <v>223.28</v>
       </c>
       <c r="AE10">
         <v>7.76</v>
@@ -1557,7 +1557,7 @@
         <v>1.64</v>
       </c>
       <c r="O11">
-        <v>1.672</v>
+        <v>1.67</v>
       </c>
       <c r="P11">
         <v>28.05</v>
@@ -1602,7 +1602,7 @@
         <v>64.70999999999999</v>
       </c>
       <c r="AD11">
-        <v>223.2833333333333</v>
+        <v>223.28</v>
       </c>
       <c r="AE11">
         <v>7.76</v>
@@ -1655,7 +1655,7 @@
         <v>0.67</v>
       </c>
       <c r="O12">
-        <v>1.672</v>
+        <v>1.67</v>
       </c>
       <c r="P12">
         <v>25.69</v>
@@ -1700,7 +1700,7 @@
         <v>95.73999999999999</v>
       </c>
       <c r="AD12">
-        <v>223.2833333333333</v>
+        <v>223.28</v>
       </c>
       <c r="AE12">
         <v>7.76</v>
@@ -1729,7 +1729,7 @@
         <v>87.05</v>
       </c>
       <c r="G13">
-        <v>10.85153846153846</v>
+        <v>10.85</v>
       </c>
       <c r="H13">
         <v>2.19</v>
@@ -1753,7 +1753,7 @@
         <v>2.24</v>
       </c>
       <c r="O13">
-        <v>1.672</v>
+        <v>1.67</v>
       </c>
       <c r="P13">
         <v>24.78</v>
@@ -1798,7 +1798,7 @@
         <v>108.11</v>
       </c>
       <c r="AD13">
-        <v>223.2833333333333</v>
+        <v>223.28</v>
       </c>
       <c r="AE13">
         <v>7.76</v>
@@ -1827,7 +1827,7 @@
         <v>103.89</v>
       </c>
       <c r="G14">
-        <v>10.85153846153846</v>
+        <v>10.85</v>
       </c>
       <c r="H14">
         <v>10.72</v>
@@ -1851,7 +1851,7 @@
         <v>1.98</v>
       </c>
       <c r="O14">
-        <v>1.672</v>
+        <v>1.67</v>
       </c>
       <c r="P14">
         <v>26.64</v>
@@ -1893,16 +1893,16 @@
         <v>7.89</v>
       </c>
       <c r="AC14">
-        <v>77.55437499999999</v>
+        <v>77.55</v>
       </c>
       <c r="AD14">
-        <v>223.2833333333333</v>
+        <v>223.28</v>
       </c>
       <c r="AE14">
         <v>7.76</v>
       </c>
       <c r="AF14">
-        <v>3.3575</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -1925,7 +1925,7 @@
         <v>101.4</v>
       </c>
       <c r="G15">
-        <v>10.85153846153846</v>
+        <v>10.85</v>
       </c>
       <c r="H15">
         <v>59.42</v>
@@ -1949,7 +1949,7 @@
         <v>1.07</v>
       </c>
       <c r="O15">
-        <v>1.672</v>
+        <v>1.67</v>
       </c>
       <c r="P15">
         <v>22.35</v>
@@ -2000,7 +2000,7 @@
         <v>7.76</v>
       </c>
       <c r="AF15">
-        <v>3.3575</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="16" spans="1:32">
@@ -2047,7 +2047,7 @@
         <v>0.2</v>
       </c>
       <c r="O16">
-        <v>1.672</v>
+        <v>1.67</v>
       </c>
       <c r="P16">
         <v>18.83</v>
@@ -2098,7 +2098,7 @@
         <v>7.76</v>
       </c>
       <c r="AF16">
-        <v>3.3575</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="17" spans="1:32">
@@ -2145,7 +2145,7 @@
         <v>0.03</v>
       </c>
       <c r="O17">
-        <v>1.672</v>
+        <v>1.67</v>
       </c>
       <c r="P17">
         <v>25.98</v>
@@ -2196,7 +2196,7 @@
         <v>7.43</v>
       </c>
       <c r="AF17">
-        <v>3.3575</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="18" spans="1:32">
@@ -2240,10 +2240,10 @@
         <v>24.67</v>
       </c>
       <c r="N18">
-        <v>4.24625</v>
+        <v>4.25</v>
       </c>
       <c r="O18">
-        <v>1.672</v>
+        <v>1.67</v>
       </c>
       <c r="P18">
         <v>24.68</v>
@@ -2294,7 +2294,7 @@
         <v>7.43</v>
       </c>
       <c r="AF18">
-        <v>3.3575</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="19" spans="1:32">
@@ -2341,7 +2341,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="O19">
-        <v>1.672</v>
+        <v>1.67</v>
       </c>
       <c r="P19">
         <v>39.01</v>
@@ -2353,7 +2353,7 @@
         <v>1.74</v>
       </c>
       <c r="S19">
-        <v>1.748181818181818</v>
+        <v>1.75</v>
       </c>
       <c r="T19">
         <v>11.12</v>
@@ -2451,7 +2451,7 @@
         <v>1.06</v>
       </c>
       <c r="S20">
-        <v>1.748181818181818</v>
+        <v>1.75</v>
       </c>
       <c r="T20">
         <v>22.31</v>
@@ -2549,7 +2549,7 @@
         <v>3.53</v>
       </c>
       <c r="S21">
-        <v>1.748181818181818</v>
+        <v>1.75</v>
       </c>
       <c r="T21">
         <v>27.01</v>
